--- a/AfDD_2024_Annex_Table_Tab34.xlsx
+++ b/AfDD_2024_Annex_Table_Tab34.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{946EC628-BF97-4FA1-A441-8FA71DCACACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E534EA9-FDF7-4405-98B6-D031A6295F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E492A645-C01E-4636-A329-A261874180E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{019AB5F9-18AB-4E9B-8718-8840D4B6234D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB6DAFF-6D35-4F18-92F0-440E3F64EF2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CFB1E-C8BC-4781-9575-C9A5C04B5833}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10053,12 +10053,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{1091E7BA-0DF3-46B8-ACC3-9D8B4F9BA01B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B8FCBBA4-E41A-4860-BC79-32BF150896D6}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{613DBCDC-33BD-40C8-8042-A94293195D18}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{A2535051-5875-494E-9186-AB428857347C}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{7BA7F54F-7C82-45F7-AD5C-FEEC04A0B5D1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{185B034A-5089-48B1-8463-0EF9C6F8C655}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{26711028-4F77-4F4F-A71D-8B7AC0BAD5B7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F8110195-4A9B-4501-B93C-853611DFB47C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{378C0774-DAAA-439F-85F5-873110458534}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{C8E5AA09-1450-4416-9DE9-4C3C86D3085D}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{C89A1208-452B-4CEA-A7E3-4692C837F3E2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B43C97C9-F6FE-4E58-9580-4741ED5DE70C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab34.xlsx
+++ b/AfDD_2024_Annex_Table_Tab34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E534EA9-FDF7-4405-98B6-D031A6295F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{578604ED-B436-48AC-9694-9B3CA62CA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{019AB5F9-18AB-4E9B-8718-8840D4B6234D}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{4CE9163D-4A66-425F-A998-EFBE1BA1A173}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -1171,8 +1171,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43CFB1E-C8BC-4781-9575-C9A5C04B5833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546A9C46-39DE-4DAD-A22C-0C0BB893FEE2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1500,7 +1500,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9936,7 +9936,7 @@
       <c r="AA110" s="72"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B111" s="75" t="s">
+      <c r="B111" s="74" t="s">
         <v>189</v>
       </c>
       <c r="C111" s="72"/>
@@ -9966,7 +9966,7 @@
       <c r="AA111" s="72"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="74" t="s">
         <v>186</v>
       </c>
       <c r="C112" s="72"/>
@@ -10053,12 +10053,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{26711028-4F77-4F4F-A71D-8B7AC0BAD5B7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F8110195-4A9B-4501-B93C-853611DFB47C}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{378C0774-DAAA-439F-85F5-873110458534}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{C8E5AA09-1450-4416-9DE9-4C3C86D3085D}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{C89A1208-452B-4CEA-A7E3-4692C837F3E2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B43C97C9-F6FE-4E58-9580-4741ED5DE70C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{15FFBBF0-752E-47D3-8DED-4DAF11132E6D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F6D1D005-D3FC-4A10-BA19-A67207532F17}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7FED18CD-F4A8-4A3E-A18A-CEC58F1CF6E3}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{ABA0B2E5-2BD1-42C9-8216-31D0BB850BEB}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{1A199DAD-17D5-48E3-9B19-19D47C1E3827}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF4FB3F1-B069-4F60-B8DA-CD19402A8640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab34.xlsx
+++ b/AfDD_2024_Annex_Table_Tab34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{578604ED-B436-48AC-9694-9B3CA62CA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABB9912-E448-4801-95CB-9518FB831B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{4CE9163D-4A66-425F-A998-EFBE1BA1A173}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DD71C0F6-62B6-4B67-9B3D-DC83D1AC5E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546A9C46-39DE-4DAD-A22C-0C0BB893FEE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC92FDA-1CD6-4B16-889D-84B16952E2C6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10053,12 +10053,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{15FFBBF0-752E-47D3-8DED-4DAF11132E6D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F6D1D005-D3FC-4A10-BA19-A67207532F17}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7FED18CD-F4A8-4A3E-A18A-CEC58F1CF6E3}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{ABA0B2E5-2BD1-42C9-8216-31D0BB850BEB}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{1A199DAD-17D5-48E3-9B19-19D47C1E3827}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF4FB3F1-B069-4F60-B8DA-CD19402A8640}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5738EF74-B752-4655-A17F-FB3CF4C32B78}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E41D8D9B-C644-43FB-9EC6-277BBE4575BE}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{60B03A60-5E7D-46BB-B608-F414D6598D60}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{001F59F2-2F0C-43CA-AEDC-70F58DDFC186}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D55AE9BE-DAB5-42CA-80FE-0E7906D3EB99}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{68B70470-7D56-475E-9880-DDAC259D6908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
